--- a/data/trans_bre/P2B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Habitat-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.00129569556944779</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0900742383723369</v>
+        <v>0.09007423837233687</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.198858316775637</v>
+        <v>-1.60070490408223</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.477634867334951</v>
+        <v>-4.050910056852586</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.002393031824684</v>
+        <v>-5.738492663995376</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.039161547549137</v>
+        <v>-3.074540570015047</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.05328886633344717</v>
+        <v>-0.06786622558518965</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.06248723579829571</v>
+        <v>-0.07338378572098414</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.114925202354866</v>
+        <v>-0.1119031119107896</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1104514058030918</v>
+        <v>-0.1134685426378259</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.803488585659027</v>
+        <v>8.564704403099592</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.745268896565949</v>
+        <v>7.908530484866043</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.466522270949658</v>
+        <v>6.176199319817612</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.835555186261755</v>
+        <v>7.332006817631798</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4577782266034628</v>
+        <v>0.4327966202691488</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1588910163873631</v>
+        <v>0.1548501268633488</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1198101224152762</v>
+        <v>0.1346574271353047</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3356268747362093</v>
+        <v>0.3538042416721996</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.236137231635038</v>
+        <v>-1.439925020600095</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.444889834564365</v>
+        <v>-3.307310788730676</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7507317675821342</v>
+        <v>0.5473054985975654</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.791090869221136</v>
+        <v>0.9705079883807526</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04822867091154609</v>
+        <v>-0.05374920969726938</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.06068558833563539</v>
+        <v>-0.05633243808181201</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0165836996414166</v>
+        <v>0.01258594290972921</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02414530024518988</v>
+        <v>0.03202813315806587</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.636144723890498</v>
+        <v>7.884173562944791</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.642300902630027</v>
+        <v>6.946737756009973</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.11067189161161</v>
+        <v>11.40775529417976</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.669847172068442</v>
+        <v>9.726614974721508</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3730667228389735</v>
+        <v>0.3862444256795165</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1262558120233547</v>
+        <v>0.1344699726533826</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2699745241133055</v>
+        <v>0.2806893740096358</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3831875970937103</v>
+        <v>0.3820721820147737</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.775527919117924</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.97173187352809</v>
+        <v>1.971731873528096</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2099980693742677</v>
@@ -849,7 +849,7 @@
         <v>0.1981992240395455</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.08872174896866342</v>
+        <v>0.08872174896866367</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6175612363953403</v>
+        <v>-0.8632137612347909</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.900290557519022</v>
+        <v>-3.25340267058519</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.236745447926939</v>
+        <v>1.134598327863874</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.99264412060311</v>
+        <v>-3.005619859318645</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.027901251185346</v>
+        <v>-0.03591941800479218</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.06605822611632499</v>
+        <v>-0.05492986375826402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03440972034813495</v>
+        <v>0.02682705377058019</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1136123388159971</v>
+        <v>-0.1218787517346736</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.03737011353763</v>
+        <v>9.513650739793539</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.352091812418088</v>
+        <v>8.448419514359944</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.21284269599633</v>
+        <v>12.50814036126456</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.999541602652378</v>
+        <v>6.824328560709062</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5520716605555724</v>
+        <v>0.5181211048516675</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1616611254523668</v>
+        <v>0.1654468401884091</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4480476876855995</v>
+        <v>0.4042915249735368</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3636722940802192</v>
+        <v>0.3467710441289144</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.579808543840389</v>
+        <v>1.353046583268109</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.300333184785099</v>
+        <v>-1.603427869685755</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.580625696211356</v>
+        <v>2.862393899344813</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.085832001549892</v>
+        <v>0.1730720823261567</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06833212230091207</v>
+        <v>0.05504169660797082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.0281358531419673</v>
+        <v>-0.03334352744478485</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0600919536842487</v>
+        <v>0.06601082342716975</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0008825295236876095</v>
+        <v>0.004111425348946905</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.30881802298609</v>
+        <v>10.22577555721614</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.079595110122062</v>
+        <v>8.408055438127146</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.55109729974644</v>
+        <v>12.72330900936026</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.039291657080359</v>
+        <v>8.575337399007015</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.562080623147642</v>
+        <v>0.5290454511133931</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2134318507366849</v>
+        <v>0.1982651305607631</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3711234086166749</v>
+        <v>0.3395263561439836</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4685020057216498</v>
+        <v>0.4486100837155009</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.339547642261238</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.66558450565479</v>
+        <v>3.665584505654795</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1994589171846545</v>
@@ -1049,7 +1049,7 @@
         <v>0.1282881604406794</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1524267439584396</v>
+        <v>0.1524267439584398</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.838468544529067</v>
+        <v>2.094536610340231</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2480159247414332</v>
+        <v>-0.3970658107834502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.638472602441384</v>
+        <v>2.563771925565693</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.248898721709579</v>
+        <v>1.230123329073517</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08344993447248172</v>
+        <v>0.09368781357187841</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.004462165255693227</v>
+        <v>-0.007741884013044361</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06145169763605939</v>
+        <v>0.06029524956935145</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.0485247103652443</v>
+        <v>0.04779045028000228</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.728180299344579</v>
+        <v>6.766273007693741</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.016170237641985</v>
+        <v>4.978092709752826</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.01423003599006</v>
+        <v>8.068235530903056</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.925443940396426</v>
+        <v>5.97227486999901</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3291212225884413</v>
+        <v>0.3353103808729127</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.100714022819172</v>
+        <v>0.09744356630668034</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2007797902050981</v>
+        <v>0.201591727308202</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2653785663012232</v>
+        <v>0.2656016876234636</v>
       </c>
     </row>
     <row r="19">
